--- a/data/trans_orig/P14A21-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A21-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83A85711-11DC-401F-91E0-DF1BDD562C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32BA6CA9-4DCE-4114-888C-40F28F452AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C67F206A-F497-46BF-A14B-A2CCDFBD2295}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8B04672F-F8AE-4ECB-A27B-C69898C2AD84}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -114,91 +114,91 @@
     <t>83,79%</t>
   </si>
   <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
   </si>
   <si>
     <t>85,69%</t>
   </si>
   <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
     <t>72,55%</t>
   </si>
   <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
   </si>
   <si>
     <t>27,45%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
     <t>14,78%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -207,22 +207,22 @@
     <t>86,9%</t>
   </si>
   <si>
-    <t>40,63%</t>
+    <t>40,9%</t>
   </si>
   <si>
     <t>90,64%</t>
   </si>
   <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>90,02%</t>
   </si>
   <si>
-    <t>76,66%</t>
+    <t>75,46%</t>
   </si>
   <si>
     <t>97,77%</t>
@@ -231,16 +231,16 @@
     <t>13,1%</t>
   </si>
   <si>
-    <t>59,37%</t>
+    <t>59,1%</t>
   </si>
   <si>
     <t>9,36%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
   </si>
   <si>
     <t>9,98%</t>
@@ -249,7 +249,7 @@
     <t>2,23%</t>
   </si>
   <si>
-    <t>23,34%</t>
+    <t>24,54%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -258,109 +258,109 @@
     <t>75,04%</t>
   </si>
   <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
   </si>
   <si>
     <t>89,3%</t>
   </si>
   <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
   </si>
   <si>
     <t>86,13%</t>
   </si>
   <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
   </si>
   <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
   </si>
   <si>
     <t>10,7%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
   </si>
   <si>
     <t>13,87%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>87,82%</t>
   </si>
   <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -384,103 +384,103 @@
     <t>67,29%</t>
   </si>
   <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
   </si>
   <si>
     <t>88,33%</t>
   </si>
   <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
   <si>
     <t>82,67%</t>
   </si>
   <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
   </si>
   <si>
     <t>32,71%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
   </si>
   <si>
     <t>11,67%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
   </si>
   <si>
     <t>17,33%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
   </si>
   <si>
     <t>79,33%</t>
   </si>
   <si>
-    <t>46,73%</t>
+    <t>46,37%</t>
   </si>
   <si>
     <t>88,93%</t>
   </si>
   <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
   </si>
   <si>
     <t>87,59%</t>
   </si>
   <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
   </si>
   <si>
     <t>20,67%</t>
   </si>
   <si>
-    <t>53,27%</t>
+    <t>53,63%</t>
   </si>
   <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
   </si>
   <si>
     <t>12,41%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
   </si>
   <si>
     <t>72,5%</t>
@@ -495,19 +495,19 @@
     <t>86,85%</t>
   </si>
   <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>83,64%</t>
   </si>
   <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
   </si>
   <si>
     <t>27,5%</t>
@@ -522,127 +522,127 @@
     <t>13,15%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
   </si>
   <si>
     <t>16,36%</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
   </si>
   <si>
     <t>57,45%</t>
   </si>
   <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
   </si>
   <si>
     <t>74,33%</t>
   </si>
   <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
   </si>
   <si>
     <t>71,08%</t>
   </si>
   <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
   </si>
   <si>
     <t>42,55%</t>
   </si>
   <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
   </si>
   <si>
     <t>25,67%</t>
   </si>
   <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
   </si>
   <si>
     <t>28,92%</t>
   </si>
   <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
   </si>
   <si>
     <t>69,39%</t>
   </si>
   <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
   </si>
   <si>
     <t>84,02%</t>
   </si>
   <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
   </si>
   <si>
     <t>81,13%</t>
   </si>
   <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
   </si>
   <si>
     <t>30,61%</t>
   </si>
   <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
   </si>
   <si>
     <t>15,98%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
   </si>
   <si>
     <t>18,87%</t>
   </si>
   <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5417285-4219-4A17-98ED-2587B20431C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DEAE62-BCC9-4BFB-B4F2-891E7C1492E3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2117,7 +2117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112A2FE0-5C10-4BD8-9CD0-F5B64530CB36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14F56ED-DBCD-4A3F-ABB0-4AC116BDF3C1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A21-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A21-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32BA6CA9-4DCE-4114-888C-40F28F452AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42D45879-169C-4AF3-8D29-2CAF5F1C4FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8B04672F-F8AE-4ECB-A27B-C69898C2AD84}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E2916F94-CABD-4077-B678-9510F00C53E2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="200">
   <si>
     <t>Población que recibe medicación o terapia por migrañas en 2012 (Tasa respuesta: 3,32%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -105,7 +105,7 @@
     <t>15,69%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -114,19 +114,19 @@
     <t>83,79%</t>
   </si>
   <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
   </si>
   <si>
     <t>85,69%</t>
   </si>
   <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -135,121 +135,121 @@
     <t>16,21%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
   </si>
   <si>
     <t>14,31%</t>
   </si>
   <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>89,18%</t>
   </si>
   <si>
-    <t>56,78%</t>
+    <t>56,19%</t>
   </si>
   <si>
     <t>84,35%</t>
   </si>
   <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>85,22%</t>
   </si>
   <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
   </si>
   <si>
     <t>10,82%</t>
   </si>
   <si>
-    <t>43,22%</t>
+    <t>43,81%</t>
   </si>
   <si>
     <t>15,65%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
   </si>
   <si>
     <t>14,78%</t>
   </si>
   <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>86,9%</t>
   </si>
   <si>
-    <t>40,9%</t>
+    <t>40,5%</t>
   </si>
   <si>
     <t>90,64%</t>
   </si>
   <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
   </si>
   <si>
     <t>90,02%</t>
   </si>
   <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>59,1%</t>
+    <t>59,5%</t>
   </si>
   <si>
     <t>9,36%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
   </si>
   <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -258,115 +258,109 @@
     <t>75,04%</t>
   </si>
   <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
   <si>
     <t>89,3%</t>
   </si>
   <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
   </si>
   <si>
     <t>86,13%</t>
   </si>
   <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
   </si>
   <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
   </si>
   <si>
     <t>10,7%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
   </si>
   <si>
     <t>13,87%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
   <si>
     <t>87,82%</t>
   </si>
   <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
+    <t>81,92%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
+    <t>18,08%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por migrañas en 2015 (Tasa respuesta: 3,41%)</t>
+    <t>Población que recibe medicación o terapia por migrañas en 2016 (Tasa respuesta: 3,41%)</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -384,265 +378,265 @@
     <t>67,29%</t>
   </si>
   <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
   </si>
   <si>
     <t>88,33%</t>
   </si>
   <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
   </si>
   <si>
     <t>82,67%</t>
   </si>
   <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>32,71%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
   </si>
   <si>
     <t>11,67%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
   </si>
   <si>
     <t>17,33%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
   </si>
   <si>
     <t>79,33%</t>
   </si>
   <si>
-    <t>46,37%</t>
+    <t>38,61%</t>
   </si>
   <si>
     <t>88,93%</t>
   </si>
   <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
   </si>
   <si>
     <t>87,59%</t>
   </si>
   <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
   </si>
   <si>
     <t>20,67%</t>
   </si>
   <si>
-    <t>53,63%</t>
+    <t>61,39%</t>
   </si>
   <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
   </si>
   <si>
     <t>12,41%</t>
   </si>
   <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
   </si>
   <si>
     <t>72,5%</t>
   </si>
   <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
   </si>
   <si>
     <t>86,85%</t>
   </si>
   <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
   </si>
   <si>
     <t>83,64%</t>
   </si>
   <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
   </si>
   <si>
     <t>27,5%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
   </si>
   <si>
     <t>13,15%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
   </si>
   <si>
     <t>16,36%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
   </si>
   <si>
     <t>57,45%</t>
   </si>
   <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
   </si>
   <si>
     <t>74,33%</t>
   </si>
   <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
   </si>
   <si>
     <t>71,08%</t>
   </si>
   <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
   </si>
   <si>
     <t>42,55%</t>
   </si>
   <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
   </si>
   <si>
     <t>25,67%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
   </si>
   <si>
     <t>28,92%</t>
   </si>
   <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
   </si>
   <si>
     <t>69,39%</t>
   </si>
   <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
   </si>
   <si>
     <t>84,02%</t>
   </si>
   <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
   </si>
   <si>
     <t>81,13%</t>
   </si>
   <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
   </si>
   <si>
     <t>30,61%</t>
   </si>
   <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
   </si>
   <si>
     <t>15,98%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
   </si>
   <si>
     <t>18,87%</t>
   </si>
   <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DEAE62-BCC9-4BFB-B4F2-891E7C1492E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F26E40-260A-4CB3-AE57-4D3C784F03BA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1974,7 +1968,7 @@
         <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="M19" s="7">
         <v>189</v>
@@ -1983,13 +1977,13 @@
         <v>201082</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,13 +1998,13 @@
         <v>5875</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -2019,13 +2013,13 @@
         <v>23121</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -2034,13 +2028,13 @@
         <v>28995</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2096,7 +2090,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2117,7 +2111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14F56ED-DBCD-4A3F-ABB0-4AC116BDF3C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF742B1-0E7C-45C6-A9B0-A6D167877CDA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2134,7 +2128,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2259,7 +2253,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2274,7 +2268,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2313,7 +2307,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2328,7 +2322,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2396,13 +2390,13 @@
         <v>6418</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -2411,13 +2405,13 @@
         <v>22877</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -2426,13 +2420,13 @@
         <v>29295</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,13 +2441,13 @@
         <v>3119</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -2462,13 +2456,13 @@
         <v>3021</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -2477,13 +2471,13 @@
         <v>6140</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,10 +2545,10 @@
         <v>7943</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>11</v>
@@ -2566,13 +2560,13 @@
         <v>54664</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -2581,13 +2575,13 @@
         <v>62606</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2596,13 @@
         <v>2069</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -2617,13 +2611,13 @@
         <v>6802</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -2632,13 +2626,13 @@
         <v>8871</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2700,13 @@
         <v>7945</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -2721,13 +2715,13 @@
         <v>33031</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -2736,13 +2730,13 @@
         <v>40977</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,13 +2751,13 @@
         <v>3015</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -2772,13 +2766,13 @@
         <v>5002</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -2787,13 +2781,13 @@
         <v>8016</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,13 +2855,13 @@
         <v>8709</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -2876,13 +2870,13 @@
         <v>47158</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -2891,13 +2885,13 @@
         <v>55868</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2906,13 @@
         <v>6451</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -2927,13 +2921,13 @@
         <v>16285</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -2942,13 +2936,13 @@
         <v>22735</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +3010,13 @@
         <v>33222</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="H19" s="7">
         <v>149</v>
@@ -3031,13 +3025,13 @@
         <v>163590</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M19" s="7">
         <v>181</v>
@@ -3046,13 +3040,13 @@
         <v>196811</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3061,13 @@
         <v>14653</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -3082,13 +3076,13 @@
         <v>31109</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M20" s="7">
         <v>43</v>
@@ -3097,13 +3091,13 @@
         <v>45763</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3159,7 +3153,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
